--- a/analytics/raw_data/tbf_market_garden_sales_2023_raw.xlsx
+++ b/analytics/raw_data/tbf_market_garden_sales_2023_raw.xlsx
@@ -117,10 +117,10 @@
     <t>tomato- amish</t>
   </si>
   <si>
-    <t>pepper- sweet- ca wonder</t>
-  </si>
-  <si>
-    <t>pepper- jalapeno- early</t>
+    <t>pepper- califonia wonder</t>
+  </si>
+  <si>
+    <t>pepper- jalapeno, early</t>
   </si>
   <si>
     <t>cilantro</t>
@@ -141,7 +141,7 @@
     <t/>
   </si>
   <si>
-    <t>pumpkin- ct field</t>
+    <t>pumpkin- connecticut field</t>
   </si>
   <si>
     <t>pepper- habanero</t>
@@ -150,7 +150,7 @@
     <t xml:space="preserve">pepper- ghost </t>
   </si>
   <si>
-    <t>sweet corn- ornamental- glas gm</t>
+    <t>corn- ornamental, glass gem</t>
   </si>
   <si>
     <t>tomato-jalapeno salsa</t>
